--- a/TableData/TableAppendixB.xlsx
+++ b/TableData/TableAppendixB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Master Uni Ulm\2. Semester\Project Economic Data Science\ChristophKiesl.github.io\TableData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F512B585-9C4D-4FE6-A0DF-BC91C5DE50D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8901EFFD-7D59-487F-BB2E-AA276D54D2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C34012B9-0E3D-41D2-BAFF-924072D05422}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>Intra-Cellular Therapies, Inc. (ITI) is a biopharmaceutical company focused on developing and commercializing small molecule drugs for neuropsychiatric and neurological disorders. Their primary revenue source is the sale of their FDA-approved drug, CAPLYTA® (lumateperone), for the treatment of schizophrenia and bipolar depression in adults. ITI's intended customer base is patients with these disorders, primarily in the U.S. market. They distribute CAPLYTA through three third-party wholesale drug distributors. ITI's product portfolio includes CAPLYTA and several other product candidates in clinical development, including:* **Lumateperone:** For the treatment of major depressive disorder (MDD), prevention of relapse in schizophrenia, and other mood disorders.* **ITI-1284-ODT-SL:** A deuterated form of lumateperone for the treatment of behavioral disturbances in patients with dementia, dementia-related psychosis, and certain depressive disorders in the elderly.* **Lenrispodun (ITI-214):** A PDE1 inhibitor for the treatment of Parkinson's disease and heart failure.* **ITI-333:** A novel compound for the non-addictive treatment of pain and opioid use disorder.ITI's distribution channels include a national sales force of approximately 320 representatives. They may also choose to commercialize products in markets outside the U.S. through strategic alliances.ITI's financing is primarily through the sale of CAPLYTA and milestone payments from licensing agreements. They received an upfront payment of $1.0 million and milestone payments of $1.25 million and $1.5 million from Bristol-Myers Squibb Company (BMS) for the development and commercialization of lumateperone. They also receive tiered royalty payments ranging between 5-9% on sales of licensed products.ITI does not own or operate manufacturing facilities and relies on third-party contract manufacturers for raw materials, API, and finished products. They have supply agreements with Siegfried Evionnaz SA and Lonza Ltd. for the manufacturing of lumateperone.ITI's intellectual property strategy includes a portfolio of approximately 125 patent families covering novel compounds, formulations, methods of treatment, synthetic methods, and platform technologies. They have extensive patent protection for lumateperone, including composition of matter protection, crystal form protection, dosage and method of treatment patents, and patents for additional dosage forms and indications. They also have patent protection for ITI-1284, lenrispodun, and ITI-333.ITI's business strategy focuses on:* Commercializing CAPLYTA in the U.S. market.* Completing the development of lumateperone for additional neuropsychiatric indications.* Expanding the commercial potential of lumateperone by investigating its usefulness in additional neurological and neuropsychiatric areas.* Advancing other product candidates in clinical development.* Advancing earlier stage product candidates in their pipeline.ITI faces intense competition from other pharmaceutical and biotechnology companies, as well as academic and research institutions. They compete with existing and new products being developed by their competitors, including generic antipsychotic products.ITI's operations are subject to extensive government regulation, including the FDA in the U.S. and comparable regulatory authorities in other countries. They must comply with regulations governing clinical trials, product licensing, pricing, and reimbursement.ITI's success depends on their ability to attract and retain highly skilled personnel. They offer a competitive total rewards package, including base salary, cash target bonus, a comprehensive benefit package, and equity compensation. They also value diversity and inclusion in their workforce.</t>
+  </si>
+  <si>
+    <t>Company_Name</t>
+  </si>
+  <si>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,21 +457,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>2020</v>
@@ -479,10 +479,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>2021</v>
@@ -490,10 +490,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>2020</v>
@@ -501,10 +501,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5">
         <v>2021</v>
@@ -512,10 +512,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>2020</v>
@@ -523,10 +523,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
       <c r="C7">
         <v>2021</v>
